--- a/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.121708839759683</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.420524811698903</v>
+        <v>5.420524811698904</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.527444817759485</v>
@@ -655,7 +655,7 @@
         <v>-0.3846650490084542</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.476212802908986</v>
+        <v>3.476212802908984</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.357759605006426</v>
@@ -664,7 +664,7 @@
         <v>0.8769561296077838</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.449439024096456</v>
+        <v>4.449439024096458</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.563688610628744</v>
+        <v>-1.624040449990515</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.153708499951114</v>
+        <v>-1.111523824565546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.535817885799736</v>
+        <v>1.616230555170646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.286164934307066</v>
+        <v>-1.110254420514999</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.406370598834259</v>
+        <v>-3.623712099382659</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.587402710657326</v>
+        <v>0.2248605760324465</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.3888338752293147</v>
+        <v>-0.2994698165852229</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.786753286457945</v>
+        <v>-1.729414040355588</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.021226270598533</v>
+        <v>1.855819062545616</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.178828222777562</v>
+        <v>6.465772439210145</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.979724355846987</v>
+        <v>6.016648258404422</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.4625724333874</v>
+        <v>9.3285985488971</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.479324728929019</v>
+        <v>6.381236649657293</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.648525603200281</v>
+        <v>3.02736150612088</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.420231766403561</v>
+        <v>6.566383121355175</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.304345185633365</v>
+        <v>5.200816965720485</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.458327136061795</v>
+        <v>3.40995311546525</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.884990721595812</v>
+        <v>6.755038105404856</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.09540978929108904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8622169648931192</v>
+        <v>0.8622169648931188</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5601579826621824</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3125422272005824</v>
+        <v>-0.2826369783979809</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2317787873904191</v>
+        <v>-0.2030526213476656</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.189008616306669</v>
+        <v>0.1924248976985292</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2674796107490538</v>
+        <v>-0.2588825491924124</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6243676924695453</v>
+        <v>-0.6578207465938466</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0983158646302387</v>
+        <v>-0.01486177065598556</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0952984992599693</v>
+        <v>-0.07463644300280481</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.330797718563832</v>
+        <v>-0.3191103575546972</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3463232220861545</v>
+        <v>0.2701430963526203</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.323233383199354</v>
+        <v>2.263762203987428</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.284116395541508</v>
+        <v>2.435708674446677</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.690611122016535</v>
+        <v>3.512531889975143</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.865325878678411</v>
+        <v>2.785637226654855</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.204167161486301</v>
+        <v>1.501109149269942</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.826826176522315</v>
+        <v>3.003801562159545</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.854834325785232</v>
+        <v>1.723530241235718</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.146964773748998</v>
+        <v>1.093215121648391</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.378120035822807</v>
+        <v>2.229042942747142</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.418537487031358</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.3909527830102663</v>
+        <v>-0.3909527830102677</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.293189288125887</v>
@@ -878,7 +878,7 @@
         <v>1.918890265864104</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.3588239591927112</v>
+        <v>0.3588239591927098</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.884774679447608</v>
+        <v>-1.404035518807417</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.753531365839402</v>
+        <v>-2.028453349336136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.137306510585635</v>
+        <v>-1.961787021111101</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6321818853828769</v>
+        <v>-0.2993613207798464</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8740589932820384</v>
+        <v>-1.380053969363505</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.829171772464347</v>
+        <v>-3.231120942629012</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1470531579018604</v>
+        <v>-0.03039696163102449</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3699197788589473</v>
+        <v>-0.4090078604531375</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.863471688525083</v>
+        <v>-1.759538594173302</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.506725117822347</v>
+        <v>4.939422238923989</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.492536401752913</v>
+        <v>4.232448836050345</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.480042346214653</v>
+        <v>4.164281534810469</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.058970822108189</v>
+        <v>6.972350360627585</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.262960998794986</v>
+        <v>5.786845066044406</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.362656258270223</v>
+        <v>2.615670417570067</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.774151453674329</v>
+        <v>4.956668386681073</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.328225839843385</v>
+        <v>4.119170556706859</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.59594309087014</v>
+        <v>2.496597481019119</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.3044953944182668</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.04922120186268034</v>
+        <v>-0.04922120186268052</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3421480206055157</v>
@@ -983,7 +983,7 @@
         <v>0.2863019244090213</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.05353718858679792</v>
+        <v>0.05353718858679771</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.281706506582852</v>
+        <v>-0.2406758560503174</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2597030613369086</v>
+        <v>-0.293225391927132</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3013874578588197</v>
+        <v>-0.2943158779282394</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06246429708987863</v>
+        <v>-0.03805343542769905</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1043731927125888</v>
+        <v>-0.1623512201591478</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3886486831302985</v>
+        <v>-0.3398076105946544</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02894051922914355</v>
+        <v>-0.03420642604302233</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04570510329412083</v>
+        <v>-0.05680289415549117</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2383725331571468</v>
+        <v>-0.2283443729770604</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.069100379679515</v>
+        <v>1.228530206736891</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.084848289706702</v>
+        <v>1.10594278196641</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.211842218921005</v>
+        <v>1.106059203165117</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.149393432467676</v>
+        <v>1.111305303014612</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.025854041972879</v>
+        <v>0.9149810168095216</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3767461488645946</v>
+        <v>0.4471685803155164</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.818291164193047</v>
+        <v>0.8449886815263484</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7794418109582931</v>
+        <v>0.7245271647690469</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4643246022562137</v>
+        <v>0.4605086413244751</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.8246377211985414</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.547643321107956</v>
+        <v>4.547643321107954</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.468246498292897</v>
+        <v>1.362347911477666</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.106190649163734</v>
+        <v>-3.550439171614918</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.843085278949051</v>
+        <v>2.896165378753428</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.650298377556192</v>
+        <v>-1.369308717470365</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.16951376528326</v>
+        <v>-4.759074562144426</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.309575920109998</v>
+        <v>-0.8819062158073725</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.102512156901627</v>
+        <v>1.072255902060397</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.47987566043765</v>
+        <v>-3.64124710108889</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.867259874673307</v>
+        <v>1.784753134436776</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.960068954684234</v>
+        <v>10.15626899611758</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.345823761855477</v>
+        <v>2.439617252753651</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.915008344763249</v>
+        <v>10.1966015256443</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.390420976634579</v>
+        <v>7.319709398845192</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.885170938914549</v>
+        <v>2.742314739635664</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.335258105211378</v>
+        <v>6.688867238656771</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.586386750300108</v>
+        <v>7.13881489185262</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.509373525044157</v>
+        <v>1.523980927016029</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.418807934195129</v>
+        <v>7.123147352296614</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.1347247675959317</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7429689108266612</v>
+        <v>0.7429689108266609</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.157199629479638</v>
+        <v>0.1968568634639785</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5934852347523737</v>
+        <v>-0.554820975417445</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3587782618042403</v>
+        <v>0.3545178970988339</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.189569590514359</v>
+        <v>-0.1515488364483797</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.552985665271962</v>
+        <v>-0.5114010079568378</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.140900927971657</v>
+        <v>-0.09538193725925846</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1339127121849946</v>
+        <v>0.1355630406036883</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4814420150697029</v>
+        <v>-0.4729860038852741</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.22054473165777</v>
+        <v>0.2479987400046338</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.904913143112898</v>
+        <v>3.219098092523907</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7404296446650276</v>
+        <v>0.7963926060875925</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.203676686874032</v>
+        <v>3.19927084319436</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.290293925799478</v>
+        <v>1.382950315687434</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5513045066224807</v>
+        <v>0.5240674343560789</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.195797517915159</v>
+        <v>1.302487137155221</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.614008775316359</v>
+        <v>1.466621506580585</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3077266736938547</v>
+        <v>0.3180481394360128</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.598471937565282</v>
+        <v>1.500800233918664</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>7.270388827446651</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.411982671210698</v>
+        <v>3.411982671210696</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.441560947033678</v>
@@ -1297,7 +1297,7 @@
         <v>2.000865964543439</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.743851786038993</v>
+        <v>1.743851786038995</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.18595165678763</v>
@@ -1306,7 +1306,7 @@
         <v>4.574290119209062</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.517886941574758</v>
+        <v>2.517886941574756</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.440753623738417</v>
+        <v>-2.314081584966739</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.263921727690312</v>
+        <v>3.49879370749697</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.114630245150181</v>
+        <v>-0.3588324593161594</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04322674401629563</v>
+        <v>0.126735934090426</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.097883422530275</v>
+        <v>-1.004778608201571</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.205573617354694</v>
+        <v>-0.9959065759292933</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2597188604461244</v>
+        <v>-0.0604775891711184</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.059301219839046</v>
+        <v>2.078220925895734</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1978594255731022</v>
+        <v>0.4631971625733179</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.430391591070023</v>
+        <v>4.219733103444622</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.41506846352185</v>
+        <v>11.02554597750894</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.378481197575697</v>
+        <v>6.488216311614976</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.409272020858126</v>
+        <v>7.023563556740771</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.349463809640031</v>
+        <v>5.855533054928693</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.331186909975898</v>
+        <v>4.143117022822794</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.598607526572924</v>
+        <v>4.338662408483231</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.107197058499358</v>
+        <v>7.014539460297193</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.748217084231277</v>
+        <v>4.61580645142692</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>1.422449694108238</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6675535273497554</v>
+        <v>0.6675535273497551</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.730829257335786</v>
@@ -1402,7 +1402,7 @@
         <v>0.4248919049816913</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3703139143280412</v>
+        <v>0.3703139143280414</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4455101397771533</v>
@@ -1411,7 +1411,7 @@
         <v>0.9322679319381059</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5131605540318767</v>
+        <v>0.5131605540318764</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3647261771767054</v>
+        <v>-0.3629821847023308</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4749022597050028</v>
+        <v>0.4494341023645674</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.06939600773393803</v>
+        <v>-0.0552684720394773</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01501552002632761</v>
+        <v>0.01442478923759781</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1900453976874237</v>
+        <v>-0.1903052747181263</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1824724977291406</v>
+        <v>-0.1799092047931095</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.05089286553558428</v>
+        <v>-0.02255913596641142</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.346263898320944</v>
+        <v>0.3212356432957283</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03493579690060255</v>
+        <v>0.07644900525234875</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.368578878780187</v>
+        <v>1.188236155376406</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.171866901144056</v>
+        <v>3.039941496474251</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.925429338204808</v>
+        <v>1.920189102418882</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.256023943648112</v>
+        <v>2.144172307569545</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.723166755534673</v>
+        <v>1.746407271889587</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.390200972308414</v>
+        <v>1.264834675059956</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.221110688343461</v>
+        <v>1.070805646292297</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.872142598884128</v>
+        <v>1.780740458146046</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.235226387625898</v>
+        <v>1.246992068749647</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.5901165629985481</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.823275079163648</v>
+        <v>2.823275079163644</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.550809192491572</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7715252171317016</v>
+        <v>-0.273761254105888</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.936728103297475</v>
+        <v>-2.897596595111501</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5689153115215135</v>
+        <v>0.4496759699670598</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.123133691831987</v>
+        <v>-2.965910187460292</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.717369259020194</v>
+        <v>-5.144239526720582</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.876241166900949</v>
+        <v>-2.315094079870084</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.603554508501887</v>
+        <v>-0.3823360548420076</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.700174529573619</v>
+        <v>-2.755570773733996</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.203706594906399</v>
+        <v>0.6054133193492025</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.915210212687224</v>
+        <v>9.48082536108798</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.549660586544788</v>
+        <v>5.617067499948092</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.530221371951315</v>
+        <v>8.528307909321807</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.819637793469527</v>
+        <v>8.45655950399248</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.4967625717271</v>
+        <v>5.851133682697107</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.387945103134194</v>
+        <v>7.496503878224224</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.021157174803344</v>
+        <v>7.25961803226612</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.532783593267419</v>
+        <v>4.254993049057609</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.712615769358621</v>
+        <v>6.935344501944287</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.06690381983636068</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3200857238865814</v>
+        <v>0.3200857238865809</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5211555727128285</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1569448475980999</v>
+        <v>-0.09684363227598516</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4806382715335409</v>
+        <v>-0.4453810841640697</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.05730771736346747</v>
+        <v>0.00913575228612943</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2806672982300666</v>
+        <v>-0.2825081915304669</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4083818432116455</v>
+        <v>-0.4593364002241304</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2330573087179518</v>
+        <v>-0.1903100028124881</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07290452065183785</v>
+        <v>-0.07441222687669359</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3166210729520939</v>
+        <v>-0.3240537601245604</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.01226182732640723</v>
+        <v>0.04349781076490131</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.93161162753079</v>
+        <v>3.476796158046433</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.959390590685437</v>
+        <v>2.051180078686599</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.054954209495036</v>
+        <v>2.752278855867341</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.52431683846927</v>
+        <v>1.304506406816847</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.084974214253291</v>
+        <v>0.9026897505175953</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.328146464282524</v>
+        <v>1.415966808489675</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.46436357402817</v>
+        <v>1.386389150953048</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.872485172384348</v>
+        <v>0.8092101705596286</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.311310557008191</v>
+        <v>1.363219656246418</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.29657952223595</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>7.084594784437521</v>
+        <v>7.084594784437516</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.158126567170912</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.924303704650778</v>
+        <v>-3.056523974465061</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.973855835026848</v>
+        <v>-3.425802867853257</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4.484319038074793</v>
+        <v>4.020890054778553</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.03616593701103</v>
+        <v>3.034818046579908</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.5627810420426791</v>
+        <v>-0.3805594891462547</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.872308967628052</v>
+        <v>3.80679422886965</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.287782493013531</v>
+        <v>1.564410872127188</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.7369870625237471</v>
+        <v>-0.6817971756583098</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>5.271087333940613</v>
+        <v>4.998799196854999</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.513424158461613</v>
+        <v>5.272942790083101</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.981005995219773</v>
+        <v>4.79497202717368</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.92961808706518</v>
+        <v>12.87286486541229</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.33096480681595</v>
+        <v>11.4164408981861</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.18528644204261</v>
+        <v>7.355954823634421</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.46965547110859</v>
+        <v>10.47431681983699</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.135209246244919</v>
+        <v>7.19199954358804</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.984425753732149</v>
+        <v>4.99649153292973</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>10.60869637435039</v>
+        <v>10.53405049096105</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.961632314516081</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>2.066619425988047</v>
+        <v>2.066619425988046</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.9192902010087592</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3987768690303864</v>
+        <v>-0.426309509640639</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4195807024972228</v>
+        <v>-0.4629725183453611</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.5276840164739094</v>
+        <v>0.4584822144852947</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.5265034430375477</v>
+        <v>0.5303745718944364</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1963481863751355</v>
+        <v>-0.2251531626934383</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6822426600084838</v>
+        <v>0.600165824078791</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2094926309897797</v>
+        <v>0.2065648805887174</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1330006628707966</v>
+        <v>-0.1493890581647125</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.8628002333826137</v>
+        <v>0.7809894832154612</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.508590878838457</v>
+        <v>1.485770551019548</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.441538065990174</v>
+        <v>1.351113080517828</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.537589502235582</v>
+        <v>3.567081469423732</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>6.135105635019108</v>
+        <v>6.228275647277369</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3.531314808801886</v>
+        <v>3.632022927449124</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>5.947705934424827</v>
+        <v>5.666578635099408</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2.217640491562903</v>
+        <v>1.987064285152499</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.459806097313977</v>
+        <v>1.506778037067474</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.529926092960374</v>
+        <v>3.259294479833977</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>2.726496082075664</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.5621062014178293</v>
+        <v>0.5621062014178307</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.485634854687053</v>
+        <v>-1.502576970246644</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.9977818157503969</v>
+        <v>1.111731693814019</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.9259295598479375</v>
+        <v>-0.8503100118054983</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.06099010787249</v>
+        <v>-1.029297756294729</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.556090822513505</v>
+        <v>-1.248350686795261</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.149966684741984</v>
+        <v>-3.153305161888035</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.3759921223746663</v>
+        <v>-0.4338741287005661</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.6581070845456114</v>
+        <v>0.6339379613523282</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.381737363206506</v>
+        <v>-1.251124011805202</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.39303654256507</v>
+        <v>4.817773702879298</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.337053161939862</v>
+        <v>7.452372687779864</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.824276604442852</v>
+        <v>4.808218654460038</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.692357329575443</v>
+        <v>4.790723076830053</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.582269551776815</v>
+        <v>4.456687858022866</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.522546379569659</v>
+        <v>1.31774027379871</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.510805991871019</v>
+        <v>3.724345106335703</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.753745922523659</v>
+        <v>5.121496456312062</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.391834009345746</v>
+        <v>2.31647525120415</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.4137297988097059</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.08529632122017945</v>
+        <v>0.08529632122017966</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1846521708321309</v>
+        <v>-0.1992109930994707</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1040556184240836</v>
+        <v>0.1218709963035442</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1256757486429033</v>
+        <v>-0.1034070640157452</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1445515815733359</v>
+        <v>-0.136330097389439</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2133144090219234</v>
+        <v>-0.1694205555200342</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3878091973814688</v>
+        <v>-0.3905276148954762</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.05240737059046933</v>
+        <v>-0.05458041416811186</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.07851497946093347</v>
+        <v>0.07553183815241511</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1763492579889354</v>
+        <v>-0.1611648306410544</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7800859777136472</v>
+        <v>0.8717354930528386</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.365612743149852</v>
+        <v>1.437671472333043</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9429824088408221</v>
+        <v>0.9518144648164326</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.9849531372903868</v>
+        <v>0.9444104889669303</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8307102346485458</v>
+        <v>0.8530164282661081</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.301145749662209</v>
+        <v>0.2925090752934582</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6192390161576022</v>
+        <v>0.6726916940083264</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.8030835937028422</v>
+        <v>0.9180834349388066</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4282534239832838</v>
+        <v>0.4168739446922022</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>3.258078443255164</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.5248734447214951</v>
+        <v>0.5248734447214964</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.116986574215093</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.20739029375169</v>
+        <v>-2.233543230549549</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.210932873688426</v>
+        <v>0.4705146782101698</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.664119032949995</v>
+        <v>-1.58625486474213</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.478792545780914</v>
+        <v>-2.177098704526885</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.4355075777977399</v>
+        <v>0.4892616806796359</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.942250809542061</v>
+        <v>-1.820838054567098</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.594539982834495</v>
+        <v>-1.636996717612657</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.246564548624805</v>
+        <v>1.355516128497403</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.029593614895213</v>
+        <v>-1.154266891329629</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.745150611313617</v>
+        <v>2.877078554007924</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>5.473184790753571</v>
+        <v>5.964847171072037</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.848209099824485</v>
+        <v>3.09166155862576</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.17105325591974</v>
+        <v>2.289955638329411</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>6.159112511877051</v>
+        <v>5.948036820050172</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.465947029906545</v>
+        <v>2.567736563105087</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.828252967659791</v>
+        <v>1.770259293876996</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>5.097563661041987</v>
+        <v>5.097876024151117</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.118072130421341</v>
+        <v>1.996626835503986</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.5873441709991556</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.09462060648282367</v>
+        <v>0.09462060648282392</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.02036959676759983</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3132838979620385</v>
+        <v>-0.3058595866708144</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.01930763701851245</v>
+        <v>0.06491626126789142</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2385781335832766</v>
+        <v>-0.2358445183426206</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3677219799005143</v>
+        <v>-0.3367439021266732</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.03829255644557726</v>
+        <v>0.05512086320410048</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2707635464036312</v>
+        <v>-0.2649431673827254</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2431677733619399</v>
+        <v>-0.2385732027123913</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1813726653746673</v>
+        <v>0.2091427876470633</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1494704845240969</v>
+        <v>-0.1742808834467468</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5875577829705388</v>
+        <v>0.6222685382124852</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.155359413366302</v>
+        <v>1.294339413377778</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6348200485285085</v>
+        <v>0.6189776133790182</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5113886144700429</v>
+        <v>0.5357235072386874</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.346275050085355</v>
+        <v>1.270748069756316</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5707833888239349</v>
+        <v>0.5574580031874428</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3581768077435382</v>
+        <v>0.3597198042934932</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.045863165011015</v>
+        <v>1.04953693857602</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4487740251167084</v>
+        <v>0.4149666015202054</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>2.261561510021494</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>2.196853052965689</v>
+        <v>2.19685305296569</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.4744844673662046</v>
+        <v>0.5183138881338702</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>1.543066755599384</v>
+        <v>1.435287809432076</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.032154691772572</v>
+        <v>1.887194643542861</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.232427870526843</v>
+        <v>1.152458102857732</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.3861811684506885</v>
+        <v>0.571820212115545</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.2792423161234185</v>
+        <v>0.3597827060496246</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.153332813696397</v>
+        <v>1.118478589936004</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.360073600142674</v>
+        <v>1.449347464256375</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.376022562609621</v>
+        <v>1.420568509184602</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.96165281007264</v>
+        <v>2.907513133590931</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4.031808288957524</v>
+        <v>3.885494740757761</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.263838150805756</v>
+        <v>4.213389544935191</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.59943848249993</v>
+        <v>3.798312811881881</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.031488745503852</v>
+        <v>3.091330718722785</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.279528799968997</v>
+        <v>2.489894151576123</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.948939656697881</v>
+        <v>3.000460500659711</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.182108666353801</v>
+        <v>3.263884872679983</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.91307011796451</v>
+        <v>2.959434149381495</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>0.38764470067052</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.376553297516064</v>
+        <v>0.3765532975160642</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.07657901634389355</v>
+        <v>0.08399916279151809</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2481980065531033</v>
+        <v>0.2254297874607238</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.3307739734113105</v>
+        <v>0.3006272271708457</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1825750130277546</v>
+        <v>0.1773128696656255</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.05978972414212593</v>
+        <v>0.08532177381509028</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.04117563161697927</v>
+        <v>0.05252169537233085</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1811873615420612</v>
+        <v>0.1757222305566409</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2178656920236383</v>
+        <v>0.2295387648919065</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.2165754794159862</v>
+        <v>0.2156695088702203</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.587390804046185</v>
+        <v>0.5655035097794426</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.7782743413639595</v>
+        <v>0.7617214764297999</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.8379340267429265</v>
+        <v>0.844915137777476</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.6617286857953925</v>
+        <v>0.6996592478309461</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.5505619542916705</v>
+        <v>0.5633970513118035</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4126456834366962</v>
+        <v>0.4605376087585222</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.540877702318884</v>
+        <v>0.5608862549269228</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.6000604165947373</v>
+        <v>0.5983318140803778</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.544908691179282</v>
+        <v>0.5446680563469308</v>
       </c>
     </row>
     <row r="58">
